--- a/Assets/Resources/Monster.xlsx
+++ b/Assets/Resources/Monster.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>Enemyname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,18 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -142,6 +130,14 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +569,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -593,25 +589,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -622,19 +618,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -648,19 +644,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -674,19 +670,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
@@ -700,19 +696,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -726,19 +722,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -752,19 +748,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
@@ -778,19 +774,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
@@ -804,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
@@ -830,19 +826,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
@@ -856,19 +852,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>13</v>
@@ -882,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
@@ -908,19 +904,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
@@ -934,19 +930,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
@@ -960,19 +956,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
@@ -986,19 +982,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>

--- a/Assets/Resources/Monster.xlsx
+++ b/Assets/Resources/Monster.xlsx
@@ -60,84 +60,85 @@
     <t>werewolf</t>
   </si>
   <si>
+    <t>Standard/Dragon/micro_dragon.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard/Orc/micro_orc.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard/Ghost/micro_ghost.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard/Mummy/micro_mummy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard/Skeleton/micro_skeleton.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard/Zombie/micro_zombie.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard/Werewolf/micro_werewolf.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Defenese</t>
+  </si>
+  <si>
+    <t>GetCoin</t>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boss_dragon</t>
-  </si>
-  <si>
-    <t>Standard/Dragon/micro_dragon.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard/Orc/micro_orc.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard/Ghost/micro_ghost.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard/Mummy/micro_mummy.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard/Skeleton/micro_skeleton.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard/Zombie/micro_zombie.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard/Werewolf/micro_werewolf.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss/Boss_Dragon/dragon.FBX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Defenese</t>
-  </si>
-  <si>
-    <t>GetCoin</t>
-  </si>
-  <si>
-    <t>PrefabPath</t>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss/dragon.FBX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -589,25 +590,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -621,19 +622,19 @@
         <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -647,19 +648,19 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -673,19 +674,19 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -699,19 +700,19 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -725,19 +726,19 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -748,22 +749,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -774,22 +775,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -800,22 +801,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -826,22 +827,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -852,22 +853,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -878,22 +879,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -904,22 +905,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -930,22 +931,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -956,27 +957,27 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -985,19 +986,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Monster.xlsx
+++ b/Assets/Resources/Monster.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="84" windowWidth="18168" windowHeight="5952"/>
+    <workbookView xWindow="285" yWindow="90" windowWidth="18165" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -138,7 +138,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boss/dragon.FBX</t>
+    <t>Boss/dragon.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,20 +569,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1025,7 +1025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,7 +1038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Monster.xlsx
+++ b/Assets/Resources/Monster.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="90" windowWidth="18165" windowHeight="5955"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="18168" windowHeight="5952"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,10 @@
   </si>
   <si>
     <t>Boss/dragon.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,20 +569,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -619,13 +619,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
@@ -645,13 +645,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -671,13 +671,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -697,13 +697,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -723,13 +723,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -749,13 +749,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
@@ -775,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -801,13 +801,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
@@ -827,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -853,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
@@ -879,13 +879,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -905,13 +905,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
@@ -931,13 +931,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -957,13 +957,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
@@ -977,19 +977,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
@@ -998,7 +998,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,7 +1038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Monster.xlsx
+++ b/Assets/Resources/Monster.xlsx
@@ -29,11 +29,14 @@
   <connection id="4" name="template3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\sb\Desktop\template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="5" name="template4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\sb\Desktop\template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>Enemyname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +142,117 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>werewolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_dragon</t>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽撞的兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面目狰狞却胆小的胆小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自认为是巨龙的小鬼，血较厚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅军团的小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级骷髅军团的小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与骷髅是死对头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总想吓人的调皮鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级的调皮鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的龙，喜欢飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为爆炸而伤了眼睛从此就怕火了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级的兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级的小龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级的胆小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级Boss龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +307,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -213,7 +330,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema4">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Root">
         <xsd:complexType>
@@ -228,6 +345,8 @@
                 <xsd:attribute name="GetCoin" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="Damage" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="PrefabPath" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="IconPath" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="Description" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -235,15 +354,15 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="4" Name="Root_映射" RootElement="Root" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+  <Map ID="6" Name="Root_映射" RootElement="Root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H16" tableType="xml" totalsRowShown="0" connectionId="4">
-  <autoFilter ref="A1:H16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J17" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="A1:J17">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -251,31 +370,39 @@
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
   </autoFilter>
-  <tableColumns count="8">
+  <tableColumns count="10">
     <tableColumn id="1" uniqueName="Enemyname" name="Enemyname">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@Enemyname" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@Enemyname" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="Level" name="Level">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@Level" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@Level" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Speed" name="Speed">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@Speed" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@Speed" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="Life" name="Life" dataDxfId="1">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@Life" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@Life" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Defenese" name="Defenese">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@Defenese" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@Defenese" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="GetCoin" name="GetCoin">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@GetCoin" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@GetCoin" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="Damage" name="Damage" dataDxfId="0">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@Damage" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@Damage" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="PrefabPath" name="PrefabPath">
-      <xmlColumnPr mapId="4" xpath="/Root/table/@PrefabPath" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/Root/table/@PrefabPath" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="IconPath" name="IconPath">
+      <xmlColumnPr mapId="6" xpath="/Root/table/@IconPath" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="Description" name="Description">
+      <xmlColumnPr mapId="6" xpath="/Root/table/@Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -567,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -580,12 +707,14 @@
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="46.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +739,14 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,8 +771,14 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -662,10 +803,16 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -688,8 +835,14 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -714,8 +867,14 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,8 +899,14 @@
       <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,8 +931,14 @@
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +963,14 @@
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,8 +995,14 @@
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,8 +1027,14 @@
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,8 +1059,14 @@
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,8 +1091,14 @@
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -922,8 +1123,14 @@
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -948,8 +1155,14 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -974,8 +1187,14 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -999,6 +1218,44 @@
       </c>
       <c r="H16" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
